--- a/其他材料/953cc850-3fca-49bf-a1d0-8dd4ae33a552 (1).xlsx
+++ b/其他材料/953cc850-3fca-49bf-a1d0-8dd4ae33a552 (1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liulianxing/Desktop/毕设相关/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liulianxing/myArea/毕设相关/其他材料/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection workbookPassword="CA1D" lockStructure="1"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="9200" yWindow="2040" windowWidth="19040" windowHeight="13100"/>
+    <workbookView xWindow="9200" yWindow="2040" windowWidth="19040" windowHeight="13100"/>
   </bookViews>
   <sheets>
     <sheet name="差旅费审批报销单" sheetId="1" r:id="rId1"/>
@@ -2697,6 +2697,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2721,11 +2727,35 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2755,36 +2785,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3651,7 +3651,7 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:A117"/>
   <sheetViews>
-    <sheetView topLeftCell="A102" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>
@@ -4213,7 +4213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="A9" sqref="A9:F9"/>
     </sheetView>
   </sheetViews>
@@ -4245,64 +4245,64 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="100.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="102" t="s">
         <v>149</v>
       </c>
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="C2" s="102" t="s">
+      <c r="C2" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="D2" s="104" t="s">
+      <c r="D2" s="106" t="s">
         <v>40</v>
       </c>
       <c r="E2" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="F2" s="106" t="s">
+      <c r="F2" s="108" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="101"/>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="105"/>
+      <c r="A3" s="103"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="107"/>
       <c r="E3" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="F3" s="107"/>
+      <c r="F3" s="109"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="102" t="s">
         <v>154</v>
       </c>
       <c r="B4" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="C4" s="102" t="s">
+      <c r="C4" s="104" t="s">
         <v>157</v>
       </c>
-      <c r="D4" s="104" t="s">
+      <c r="D4" s="106" t="s">
         <v>158</v>
       </c>
-      <c r="E4" s="104" t="s">
+      <c r="E4" s="106" t="s">
         <v>159</v>
       </c>
-      <c r="F4" s="106" t="s">
+      <c r="F4" s="108" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="43" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="101"/>
+      <c r="A5" s="103"/>
       <c r="B5" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="C5" s="103"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="107"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="109"/>
     </row>
     <row r="6" spans="1:6" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
@@ -4333,84 +4333,84 @@
       <c r="F7" s="33"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="108" t="s">
+      <c r="A8" s="100" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="109"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
     </row>
     <row r="9" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="108" t="s">
+      <c r="A9" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="109"/>
-      <c r="C9" s="109"/>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
     </row>
     <row r="10" spans="1:6" ht="35.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="108" t="s">
+      <c r="A10" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="101"/>
     </row>
     <row r="11" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="108" t="s">
+      <c r="A11" s="100" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="109"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="109"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
     </row>
     <row r="12" spans="1:6" ht="36.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="108" t="s">
+      <c r="A12" s="100" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="109"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="109"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
     </row>
     <row r="13" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="108" t="s">
+      <c r="A13" s="100" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="109"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="109"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="101"/>
     </row>
   </sheetData>
   <sheetProtection password="CA1D" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="16">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4428,58 +4428,58 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="120" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
     </row>
     <row r="2" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="111"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
+      <c r="A2" s="121"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
     </row>
     <row r="3" spans="1:10" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="122" t="s">
         <v>164</v>
       </c>
-      <c r="B3" s="114" t="s">
+      <c r="B3" s="124" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="116" t="s">
+      <c r="C3" s="126" t="s">
         <v>166</v>
       </c>
-      <c r="D3" s="117"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="114" t="s">
+      <c r="D3" s="127"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="124" t="s">
         <v>167</v>
       </c>
-      <c r="G3" s="114" t="s">
+      <c r="G3" s="124" t="s">
         <v>168</v>
       </c>
-      <c r="H3" s="116" t="s">
+      <c r="H3" s="126" t="s">
         <v>169</v>
       </c>
-      <c r="I3" s="117"/>
-      <c r="J3" s="119"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="129"/>
     </row>
     <row r="4" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="113"/>
-      <c r="B4" s="115"/>
+      <c r="A4" s="123"/>
+      <c r="B4" s="125"/>
       <c r="C4" s="9" t="s">
         <v>149</v>
       </c>
@@ -4489,8 +4489,8 @@
       <c r="E4" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
       <c r="H4" s="9" t="s">
         <v>149</v>
       </c>
@@ -4508,13 +4508,13 @@
       <c r="B5" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C5" s="122">
+      <c r="C5" s="110">
         <v>1100</v>
       </c>
-      <c r="D5" s="122">
+      <c r="D5" s="110">
         <v>700</v>
       </c>
-      <c r="E5" s="122">
+      <c r="E5" s="110">
         <v>500</v>
       </c>
       <c r="F5" s="13"/>
@@ -4530,9 +4530,9 @@
       <c r="B6" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
@@ -4546,9 +4546,9 @@
       <c r="B7" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C7" s="123"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
       <c r="F7" s="13" t="s">
         <v>173</v>
       </c>
@@ -4572,13 +4572,13 @@
       <c r="B8" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C8" s="122">
+      <c r="C8" s="110">
         <v>900</v>
       </c>
-      <c r="D8" s="122">
+      <c r="D8" s="110">
         <v>600</v>
       </c>
-      <c r="E8" s="122">
+      <c r="E8" s="110">
         <v>500</v>
       </c>
       <c r="F8" s="13"/>
@@ -4594,9 +4594,9 @@
       <c r="B9" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="C9" s="126"/>
-      <c r="D9" s="126"/>
-      <c r="E9" s="126"/>
+      <c r="C9" s="114"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
@@ -4610,9 +4610,9 @@
       <c r="B10" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C10" s="126"/>
-      <c r="D10" s="126"/>
-      <c r="E10" s="126"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="114"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
@@ -4626,9 +4626,9 @@
       <c r="B11" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C11" s="126"/>
-      <c r="D11" s="126"/>
-      <c r="E11" s="126"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
       <c r="F11" s="9" t="s">
         <v>178</v>
       </c>
@@ -4652,9 +4652,9 @@
       <c r="B12" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C12" s="126"/>
-      <c r="D12" s="126"/>
-      <c r="E12" s="126"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
@@ -4668,9 +4668,9 @@
       <c r="B13" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C13" s="126"/>
-      <c r="D13" s="126"/>
-      <c r="E13" s="126"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
@@ -4684,9 +4684,9 @@
       <c r="B14" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="111"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
@@ -4700,13 +4700,13 @@
       <c r="B15" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C15" s="122">
+      <c r="C15" s="110">
         <v>800</v>
       </c>
-      <c r="D15" s="122">
+      <c r="D15" s="110">
         <v>500</v>
       </c>
-      <c r="E15" s="122">
+      <c r="E15" s="110">
         <v>400</v>
       </c>
       <c r="F15" s="13"/>
@@ -4722,9 +4722,9 @@
       <c r="B16" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="126"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
       <c r="F16" s="13" t="s">
         <v>184</v>
       </c>
@@ -4748,9 +4748,9 @@
       <c r="B17" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C17" s="126"/>
-      <c r="D17" s="126"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="114"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="114"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
@@ -4764,9 +4764,9 @@
       <c r="B18" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="C18" s="126"/>
-      <c r="D18" s="126"/>
-      <c r="E18" s="126"/>
+      <c r="C18" s="114"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="114"/>
       <c r="F18" s="13" t="s">
         <v>187</v>
       </c>
@@ -4790,9 +4790,9 @@
       <c r="B19" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="C19" s="126"/>
-      <c r="D19" s="126"/>
-      <c r="E19" s="126"/>
+      <c r="C19" s="114"/>
+      <c r="D19" s="114"/>
+      <c r="E19" s="114"/>
       <c r="F19" s="13" t="s">
         <v>189</v>
       </c>
@@ -4816,9 +4816,9 @@
       <c r="B20" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C20" s="126"/>
-      <c r="D20" s="126"/>
-      <c r="E20" s="126"/>
+      <c r="C20" s="114"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="114"/>
       <c r="F20" s="13" t="s">
         <v>189</v>
       </c>
@@ -4842,9 +4842,9 @@
       <c r="B21" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="C21" s="126"/>
-      <c r="D21" s="126"/>
-      <c r="E21" s="126"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="114"/>
       <c r="F21" s="13" t="s">
         <v>192</v>
       </c>
@@ -4868,9 +4868,9 @@
       <c r="B22" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C22" s="126"/>
-      <c r="D22" s="126"/>
-      <c r="E22" s="126"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="114"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
@@ -4884,9 +4884,9 @@
       <c r="B23" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C23" s="126"/>
-      <c r="D23" s="126"/>
-      <c r="E23" s="126"/>
+      <c r="C23" s="114"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="114"/>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
@@ -4900,9 +4900,9 @@
       <c r="B24" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C24" s="126"/>
-      <c r="D24" s="126"/>
-      <c r="E24" s="126"/>
+      <c r="C24" s="114"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="114"/>
       <c r="F24" s="13" t="s">
         <v>189</v>
       </c>
@@ -4926,9 +4926,9 @@
       <c r="B25" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C25" s="126"/>
-      <c r="D25" s="126"/>
-      <c r="E25" s="126"/>
+      <c r="C25" s="114"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="114"/>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
@@ -4942,9 +4942,9 @@
       <c r="B26" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C26" s="126"/>
-      <c r="D26" s="126"/>
-      <c r="E26" s="126"/>
+      <c r="C26" s="114"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="114"/>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
@@ -4958,9 +4958,9 @@
       <c r="B27" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C27" s="126"/>
-      <c r="D27" s="126"/>
-      <c r="E27" s="126"/>
+      <c r="C27" s="114"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="114"/>
       <c r="F27" s="13" t="s">
         <v>199</v>
       </c>
@@ -4978,44 +4978,44 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="120">
+      <c r="A28" s="116">
         <v>24</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="C28" s="126"/>
-      <c r="D28" s="126"/>
-      <c r="E28" s="126"/>
-      <c r="F28" s="122" t="s">
+      <c r="C28" s="114"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="114"/>
+      <c r="F28" s="110" t="s">
         <v>202</v>
       </c>
-      <c r="G28" s="124">
+      <c r="G28" s="118">
         <v>0.3</v>
       </c>
-      <c r="H28" s="122">
+      <c r="H28" s="110">
         <v>1040</v>
       </c>
-      <c r="I28" s="122">
+      <c r="I28" s="110">
         <v>750</v>
       </c>
-      <c r="J28" s="127">
+      <c r="J28" s="112">
         <v>520</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="29" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="121"/>
+      <c r="A29" s="117"/>
       <c r="B29" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C29" s="126"/>
-      <c r="D29" s="126"/>
-      <c r="E29" s="126"/>
-      <c r="F29" s="123"/>
-      <c r="G29" s="125"/>
-      <c r="H29" s="123"/>
-      <c r="I29" s="123"/>
-      <c r="J29" s="128"/>
+      <c r="C29" s="114"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="114"/>
+      <c r="F29" s="111"/>
+      <c r="G29" s="119"/>
+      <c r="H29" s="111"/>
+      <c r="I29" s="111"/>
+      <c r="J29" s="113"/>
     </row>
     <row r="30" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="21">
@@ -5024,9 +5024,9 @@
       <c r="B30" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C30" s="126"/>
-      <c r="D30" s="126"/>
-      <c r="E30" s="126"/>
+      <c r="C30" s="114"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="114"/>
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
@@ -5040,9 +5040,9 @@
       <c r="B31" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="C31" s="126"/>
-      <c r="D31" s="126"/>
-      <c r="E31" s="126"/>
+      <c r="C31" s="114"/>
+      <c r="D31" s="114"/>
+      <c r="E31" s="114"/>
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
@@ -5056,9 +5056,9 @@
       <c r="B32" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="C32" s="126"/>
-      <c r="D32" s="126"/>
-      <c r="E32" s="126"/>
+      <c r="C32" s="114"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="114"/>
       <c r="F32" s="13" t="s">
         <v>192</v>
       </c>
@@ -5082,9 +5082,9 @@
       <c r="B33" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="C33" s="126"/>
-      <c r="D33" s="126"/>
-      <c r="E33" s="126"/>
+      <c r="C33" s="114"/>
+      <c r="D33" s="114"/>
+      <c r="E33" s="114"/>
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
@@ -5098,9 +5098,9 @@
       <c r="B34" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C34" s="126"/>
-      <c r="D34" s="126"/>
-      <c r="E34" s="126"/>
+      <c r="C34" s="114"/>
+      <c r="D34" s="114"/>
+      <c r="E34" s="114"/>
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
@@ -5114,9 +5114,9 @@
       <c r="B35" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="C35" s="126"/>
-      <c r="D35" s="126"/>
-      <c r="E35" s="126"/>
+      <c r="C35" s="114"/>
+      <c r="D35" s="114"/>
+      <c r="E35" s="114"/>
       <c r="F35" s="13" t="s">
         <v>209</v>
       </c>
@@ -5140,9 +5140,9 @@
       <c r="B36" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="C36" s="126"/>
-      <c r="D36" s="126"/>
-      <c r="E36" s="126"/>
+      <c r="C36" s="114"/>
+      <c r="D36" s="114"/>
+      <c r="E36" s="114"/>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
       <c r="H36" s="16"/>
@@ -5156,9 +5156,9 @@
       <c r="B37" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C37" s="129"/>
-      <c r="D37" s="129"/>
-      <c r="E37" s="129"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="115"/>
+      <c r="E37" s="115"/>
       <c r="F37" s="19"/>
       <c r="G37" s="19"/>
       <c r="H37" s="19"/>
@@ -5169,12 +5169,13 @@
   </sheetData>
   <sheetProtection password="CA1D" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="22">
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="C15:C37"/>
-    <mergeCell ref="D15:D37"/>
-    <mergeCell ref="E15:E37"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:J3"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="F28:F29"/>
     <mergeCell ref="G28:G29"/>
@@ -5184,13 +5185,12 @@
     <mergeCell ref="C8:C14"/>
     <mergeCell ref="D8:D14"/>
     <mergeCell ref="E8:E14"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="C15:C37"/>
+    <mergeCell ref="D15:D37"/>
+    <mergeCell ref="E15:E37"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/其他材料/953cc850-3fca-49bf-a1d0-8dd4ae33a552 (1).xlsx
+++ b/其他材料/953cc850-3fca-49bf-a1d0-8dd4ae33a552 (1).xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <workbookProtection workbookPassword="CA1D" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="9200" yWindow="2040" windowWidth="19040" windowHeight="13100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16400"/>
   </bookViews>
   <sheets>
     <sheet name="差旅费审批报销单" sheetId="1" r:id="rId1"/>
@@ -2697,34 +2697,70 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2733,58 +2769,22 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4245,64 +4245,64 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="100.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="100" t="s">
         <v>149</v>
       </c>
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="102" t="s">
         <v>150</v>
       </c>
-      <c r="C2" s="104" t="s">
+      <c r="C2" s="102" t="s">
         <v>151</v>
       </c>
-      <c r="D2" s="106" t="s">
+      <c r="D2" s="104" t="s">
         <v>40</v>
       </c>
       <c r="E2" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="F2" s="108" t="s">
+      <c r="F2" s="106" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="103"/>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="107"/>
+      <c r="A3" s="101"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="105"/>
       <c r="E3" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="F3" s="109"/>
+      <c r="F3" s="107"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="100" t="s">
         <v>154</v>
       </c>
       <c r="B4" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="102" t="s">
         <v>157</v>
       </c>
-      <c r="D4" s="106" t="s">
+      <c r="D4" s="104" t="s">
         <v>158</v>
       </c>
-      <c r="E4" s="106" t="s">
+      <c r="E4" s="104" t="s">
         <v>159</v>
       </c>
-      <c r="F4" s="108" t="s">
+      <c r="F4" s="106" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="43" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="103"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="C5" s="105"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="109"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="107"/>
     </row>
     <row r="6" spans="1:6" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
@@ -4333,84 +4333,84 @@
       <c r="F7" s="33"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="108" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
     </row>
     <row r="9" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="100" t="s">
+      <c r="A9" s="108" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="101"/>
-      <c r="C9" s="101"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="101"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="109"/>
     </row>
     <row r="10" spans="1:6" ht="35.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="100" t="s">
+      <c r="A10" s="108" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="101"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
     </row>
     <row r="11" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="100" t="s">
+      <c r="A11" s="108" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="101"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="109"/>
     </row>
     <row r="12" spans="1:6" ht="36.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="100" t="s">
+      <c r="A12" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="101"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="109"/>
     </row>
     <row r="13" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="100" t="s">
+      <c r="A13" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="101"/>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="109"/>
     </row>
   </sheetData>
   <sheetProtection password="CA1D" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="16">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:F3"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4428,58 +4428,58 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="110" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
     </row>
     <row r="2" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="121"/>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
     </row>
     <row r="3" spans="1:10" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="122" t="s">
+      <c r="A3" s="112" t="s">
         <v>164</v>
       </c>
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="114" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="126" t="s">
+      <c r="C3" s="116" t="s">
         <v>166</v>
       </c>
-      <c r="D3" s="127"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="124" t="s">
+      <c r="D3" s="117"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="114" t="s">
         <v>167</v>
       </c>
-      <c r="G3" s="124" t="s">
+      <c r="G3" s="114" t="s">
         <v>168</v>
       </c>
-      <c r="H3" s="126" t="s">
+      <c r="H3" s="116" t="s">
         <v>169</v>
       </c>
-      <c r="I3" s="127"/>
-      <c r="J3" s="129"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="119"/>
     </row>
     <row r="4" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="123"/>
-      <c r="B4" s="125"/>
+      <c r="A4" s="113"/>
+      <c r="B4" s="115"/>
       <c r="C4" s="9" t="s">
         <v>149</v>
       </c>
@@ -4489,8 +4489,8 @@
       <c r="E4" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="F4" s="125"/>
-      <c r="G4" s="125"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
       <c r="H4" s="9" t="s">
         <v>149</v>
       </c>
@@ -4508,13 +4508,13 @@
       <c r="B5" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C5" s="110">
+      <c r="C5" s="122">
         <v>1100</v>
       </c>
-      <c r="D5" s="110">
+      <c r="D5" s="122">
         <v>700</v>
       </c>
-      <c r="E5" s="110">
+      <c r="E5" s="122">
         <v>500</v>
       </c>
       <c r="F5" s="13"/>
@@ -4530,9 +4530,9 @@
       <c r="B6" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
@@ -4546,9 +4546,9 @@
       <c r="B7" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C7" s="111"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="123"/>
       <c r="F7" s="13" t="s">
         <v>173</v>
       </c>
@@ -4572,13 +4572,13 @@
       <c r="B8" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C8" s="110">
+      <c r="C8" s="122">
         <v>900</v>
       </c>
-      <c r="D8" s="110">
+      <c r="D8" s="122">
         <v>600</v>
       </c>
-      <c r="E8" s="110">
+      <c r="E8" s="122">
         <v>500</v>
       </c>
       <c r="F8" s="13"/>
@@ -4594,9 +4594,9 @@
       <c r="B9" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="C9" s="114"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="126"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
@@ -4610,9 +4610,9 @@
       <c r="B10" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C10" s="114"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="114"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="126"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
@@ -4626,9 +4626,9 @@
       <c r="B11" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C11" s="114"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
+      <c r="C11" s="126"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="126"/>
       <c r="F11" s="9" t="s">
         <v>178</v>
       </c>
@@ -4652,9 +4652,9 @@
       <c r="B12" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C12" s="114"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="126"/>
+      <c r="E12" s="126"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
@@ -4668,9 +4668,9 @@
       <c r="B13" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C13" s="114"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="126"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
@@ -4684,9 +4684,9 @@
       <c r="B14" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="C14" s="111"/>
-      <c r="D14" s="111"/>
-      <c r="E14" s="111"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
@@ -4700,13 +4700,13 @@
       <c r="B15" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C15" s="110">
+      <c r="C15" s="122">
         <v>800</v>
       </c>
-      <c r="D15" s="110">
+      <c r="D15" s="122">
         <v>500</v>
       </c>
-      <c r="E15" s="110">
+      <c r="E15" s="122">
         <v>400</v>
       </c>
       <c r="F15" s="13"/>
@@ -4722,9 +4722,9 @@
       <c r="B16" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C16" s="114"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="126"/>
       <c r="F16" s="13" t="s">
         <v>184</v>
       </c>
@@ -4748,9 +4748,9 @@
       <c r="B17" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C17" s="114"/>
-      <c r="D17" s="114"/>
-      <c r="E17" s="114"/>
+      <c r="C17" s="126"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
@@ -4764,9 +4764,9 @@
       <c r="B18" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="C18" s="114"/>
-      <c r="D18" s="114"/>
-      <c r="E18" s="114"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="126"/>
+      <c r="E18" s="126"/>
       <c r="F18" s="13" t="s">
         <v>187</v>
       </c>
@@ -4790,9 +4790,9 @@
       <c r="B19" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="C19" s="114"/>
-      <c r="D19" s="114"/>
-      <c r="E19" s="114"/>
+      <c r="C19" s="126"/>
+      <c r="D19" s="126"/>
+      <c r="E19" s="126"/>
       <c r="F19" s="13" t="s">
         <v>189</v>
       </c>
@@ -4816,9 +4816,9 @@
       <c r="B20" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C20" s="114"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="114"/>
+      <c r="C20" s="126"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="126"/>
       <c r="F20" s="13" t="s">
         <v>189</v>
       </c>
@@ -4842,9 +4842,9 @@
       <c r="B21" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="C21" s="114"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="114"/>
+      <c r="C21" s="126"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="126"/>
       <c r="F21" s="13" t="s">
         <v>192</v>
       </c>
@@ -4868,9 +4868,9 @@
       <c r="B22" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C22" s="114"/>
-      <c r="D22" s="114"/>
-      <c r="E22" s="114"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="126"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
@@ -4884,9 +4884,9 @@
       <c r="B23" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C23" s="114"/>
-      <c r="D23" s="114"/>
-      <c r="E23" s="114"/>
+      <c r="C23" s="126"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="126"/>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
@@ -4900,9 +4900,9 @@
       <c r="B24" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C24" s="114"/>
-      <c r="D24" s="114"/>
-      <c r="E24" s="114"/>
+      <c r="C24" s="126"/>
+      <c r="D24" s="126"/>
+      <c r="E24" s="126"/>
       <c r="F24" s="13" t="s">
         <v>189</v>
       </c>
@@ -4926,9 +4926,9 @@
       <c r="B25" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C25" s="114"/>
-      <c r="D25" s="114"/>
-      <c r="E25" s="114"/>
+      <c r="C25" s="126"/>
+      <c r="D25" s="126"/>
+      <c r="E25" s="126"/>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
@@ -4942,9 +4942,9 @@
       <c r="B26" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C26" s="114"/>
-      <c r="D26" s="114"/>
-      <c r="E26" s="114"/>
+      <c r="C26" s="126"/>
+      <c r="D26" s="126"/>
+      <c r="E26" s="126"/>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
@@ -4958,9 +4958,9 @@
       <c r="B27" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C27" s="114"/>
-      <c r="D27" s="114"/>
-      <c r="E27" s="114"/>
+      <c r="C27" s="126"/>
+      <c r="D27" s="126"/>
+      <c r="E27" s="126"/>
       <c r="F27" s="13" t="s">
         <v>199</v>
       </c>
@@ -4978,44 +4978,44 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="116">
+      <c r="A28" s="120">
         <v>24</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="C28" s="114"/>
-      <c r="D28" s="114"/>
-      <c r="E28" s="114"/>
-      <c r="F28" s="110" t="s">
+      <c r="C28" s="126"/>
+      <c r="D28" s="126"/>
+      <c r="E28" s="126"/>
+      <c r="F28" s="122" t="s">
         <v>202</v>
       </c>
-      <c r="G28" s="118">
+      <c r="G28" s="124">
         <v>0.3</v>
       </c>
-      <c r="H28" s="110">
+      <c r="H28" s="122">
         <v>1040</v>
       </c>
-      <c r="I28" s="110">
+      <c r="I28" s="122">
         <v>750</v>
       </c>
-      <c r="J28" s="112">
+      <c r="J28" s="127">
         <v>520</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="29" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="117"/>
+      <c r="A29" s="121"/>
       <c r="B29" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C29" s="114"/>
-      <c r="D29" s="114"/>
-      <c r="E29" s="114"/>
-      <c r="F29" s="111"/>
-      <c r="G29" s="119"/>
-      <c r="H29" s="111"/>
-      <c r="I29" s="111"/>
-      <c r="J29" s="113"/>
+      <c r="C29" s="126"/>
+      <c r="D29" s="126"/>
+      <c r="E29" s="126"/>
+      <c r="F29" s="123"/>
+      <c r="G29" s="125"/>
+      <c r="H29" s="123"/>
+      <c r="I29" s="123"/>
+      <c r="J29" s="128"/>
     </row>
     <row r="30" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="21">
@@ -5024,9 +5024,9 @@
       <c r="B30" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C30" s="114"/>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
+      <c r="C30" s="126"/>
+      <c r="D30" s="126"/>
+      <c r="E30" s="126"/>
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
@@ -5040,9 +5040,9 @@
       <c r="B31" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="C31" s="114"/>
-      <c r="D31" s="114"/>
-      <c r="E31" s="114"/>
+      <c r="C31" s="126"/>
+      <c r="D31" s="126"/>
+      <c r="E31" s="126"/>
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
@@ -5056,9 +5056,9 @@
       <c r="B32" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="C32" s="114"/>
-      <c r="D32" s="114"/>
-      <c r="E32" s="114"/>
+      <c r="C32" s="126"/>
+      <c r="D32" s="126"/>
+      <c r="E32" s="126"/>
       <c r="F32" s="13" t="s">
         <v>192</v>
       </c>
@@ -5082,9 +5082,9 @@
       <c r="B33" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="C33" s="114"/>
-      <c r="D33" s="114"/>
-      <c r="E33" s="114"/>
+      <c r="C33" s="126"/>
+      <c r="D33" s="126"/>
+      <c r="E33" s="126"/>
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
@@ -5098,9 +5098,9 @@
       <c r="B34" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C34" s="114"/>
-      <c r="D34" s="114"/>
-      <c r="E34" s="114"/>
+      <c r="C34" s="126"/>
+      <c r="D34" s="126"/>
+      <c r="E34" s="126"/>
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
@@ -5114,9 +5114,9 @@
       <c r="B35" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="C35" s="114"/>
-      <c r="D35" s="114"/>
-      <c r="E35" s="114"/>
+      <c r="C35" s="126"/>
+      <c r="D35" s="126"/>
+      <c r="E35" s="126"/>
       <c r="F35" s="13" t="s">
         <v>209</v>
       </c>
@@ -5140,9 +5140,9 @@
       <c r="B36" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="C36" s="114"/>
-      <c r="D36" s="114"/>
-      <c r="E36" s="114"/>
+      <c r="C36" s="126"/>
+      <c r="D36" s="126"/>
+      <c r="E36" s="126"/>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
       <c r="H36" s="16"/>
@@ -5156,9 +5156,9 @@
       <c r="B37" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C37" s="115"/>
-      <c r="D37" s="115"/>
-      <c r="E37" s="115"/>
+      <c r="C37" s="129"/>
+      <c r="D37" s="129"/>
+      <c r="E37" s="129"/>
       <c r="F37" s="19"/>
       <c r="G37" s="19"/>
       <c r="H37" s="19"/>
@@ -5169,13 +5169,12 @@
   </sheetData>
   <sheetProtection password="CA1D" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="22">
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="C15:C37"/>
+    <mergeCell ref="D15:D37"/>
+    <mergeCell ref="E15:E37"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="F28:F29"/>
     <mergeCell ref="G28:G29"/>
@@ -5185,12 +5184,13 @@
     <mergeCell ref="C8:C14"/>
     <mergeCell ref="D8:D14"/>
     <mergeCell ref="E8:E14"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="C15:C37"/>
-    <mergeCell ref="D15:D37"/>
-    <mergeCell ref="E15:E37"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:J3"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
